--- a/TestData/starBucksTestData.xlsx
+++ b/TestData/starBucksTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE2B9C6-F95D-4743-B9C7-327E007EDBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA05685-8E07-460B-AFD0-723704059070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>TC</t>
   </si>
@@ -58,33 +58,113 @@
     <t>SBU</t>
   </si>
   <si>
-    <t>Surya@6098</t>
-  </si>
-  <si>
-    <t>West bromwich Drive</t>
-  </si>
-  <si>
     <t>productName</t>
   </si>
   <si>
     <t>productPrize</t>
   </si>
   <si>
-    <t>Chocolate Caramel Shortbread</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>£2.65</t>
+    <t>West Bromwich Drive</t>
+  </si>
+  <si>
+    <t>expectedUserName</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>streetName</t>
+  </si>
+  <si>
+    <t>2 Leman Street</t>
+  </si>
+  <si>
+    <t>menuData</t>
+  </si>
+  <si>
+    <t>Coffee Frappuccino®</t>
+  </si>
+  <si>
+    <t>Caramel Frappucino® Blended Beverage</t>
+  </si>
+  <si>
+    <t>sizeData</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>milkSelection</t>
+  </si>
+  <si>
+    <t>Soya</t>
+  </si>
+  <si>
+    <t>syrupSelection</t>
+  </si>
+  <si>
+    <t>Vanilla Syrup</t>
+  </si>
+  <si>
+    <t>orderTime</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Picked for you</t>
+  </si>
+  <si>
+    <t>Caramel Macchiato</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Semi-Skimmed Milk</t>
+  </si>
+  <si>
+    <t>shotSelection</t>
+  </si>
+  <si>
+    <t>Signature Espresso</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>13:58</t>
+  </si>
+  <si>
+    <t>Qwerty@6098</t>
+  </si>
+  <si>
+    <t>14:11</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Cream Frappuccino®</t>
+  </si>
+  <si>
+    <t>Strawberries &amp; Cream Frappuccino® Blended Beverage</t>
+  </si>
+  <si>
+    <t>Vegan Whipped Topping</t>
+  </si>
+  <si>
+    <t>12:24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +176,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -407,24 +493,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="50.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,25 +526,49 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,29 +578,156 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1CB357DE-CA31-45DB-A98F-C619C7ACA9AC}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{D54D8FC7-5183-48D0-AC6C-D943B8D530E5}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{815FACF6-4DF8-4294-958B-5C61B60F05C2}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{C7B9F27C-ED6D-4513-BD44-C19A67FE735E}"/>
+    <hyperlink ref="M4" r:id="rId6" xr:uid="{D341E9E9-CA34-4CAB-9C82-940350E6F0C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/starBucksTestData.xlsx
+++ b/TestData/starBucksTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA05685-8E07-460B-AFD0-723704059070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E00A8A8-64A7-422B-A063-380FE4485F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>TC</t>
   </si>
@@ -158,12 +158,55 @@
   </si>
   <si>
     <t>12:24</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>quantityValueDropDown</t>
+  </si>
+  <si>
+    <t>15.60</t>
+  </si>
+  <si>
+    <t>14:16</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Filter Coffee</t>
+  </si>
+  <si>
+    <t>frequentlyOrderedItem</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>Ham &amp; Cheese Croissant</t>
+  </si>
+  <si>
+    <t>Tomato &amp; Mozzarella Panini</t>
+  </si>
+  <si>
+    <t>Smoked Bacon Roll</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>11:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,29 +536,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="50.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="50.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,28 +592,34 @@
         <v>35</v>
       </c>
       <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -597,29 +648,31 @@
         <v>27</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -650,29 +703,31 @@
       <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -697,37 +752,139 @@
       <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1CB357DE-CA31-45DB-A98F-C619C7ACA9AC}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{D54D8FC7-5183-48D0-AC6C-D943B8D530E5}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{815FACF6-4DF8-4294-958B-5C61B60F05C2}"/>
+    <hyperlink ref="O3" r:id="rId4" xr:uid="{815FACF6-4DF8-4294-958B-5C61B60F05C2}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{C7B9F27C-ED6D-4513-BD44-C19A67FE735E}"/>
-    <hyperlink ref="M4" r:id="rId6" xr:uid="{D341E9E9-CA34-4CAB-9C82-940350E6F0C6}"/>
+    <hyperlink ref="O4" r:id="rId6" xr:uid="{D341E9E9-CA34-4CAB-9C82-940350E6F0C6}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{DE15CFCD-A6E5-438C-BF16-FC8FDC0249D2}"/>
+    <hyperlink ref="O5" r:id="rId8" xr:uid="{9CA59AE1-B2EA-4D49-8160-6FB7407AA337}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{8769B8FA-A547-4F54-9B66-8BF20A835882}"/>
+    <hyperlink ref="O6" r:id="rId10" xr:uid="{4ABB61D5-9C5D-4E71-8F1E-B996DFA54740}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/starBucksTestData.xlsx
+++ b/TestData/starBucksTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E00A8A8-64A7-422B-A063-380FE4485F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547EE5BB-73E9-4A61-BF87-0E0B80F91352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
   <si>
     <t>TC</t>
   </si>
@@ -181,18 +181,6 @@
     <t>frequentlyOrderedItem</t>
   </si>
   <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>11:03</t>
-  </si>
-  <si>
-    <t>Ham &amp; Cheese Croissant</t>
-  </si>
-  <si>
-    <t>Tomato &amp; Mozzarella Panini</t>
-  </si>
-  <si>
     <t>Smoked Bacon Roll</t>
   </si>
   <si>
@@ -200,6 +188,75 @@
   </si>
   <si>
     <t>11:55</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Coffee at Home</t>
+  </si>
+  <si>
+    <t>Espresso Roast Nespresso® Capsules</t>
+  </si>
+  <si>
+    <t>17.85</t>
+  </si>
+  <si>
+    <t>10:46</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Refresha® &amp; Iced Teas</t>
+  </si>
+  <si>
+    <t>Pink Coconut Starbucks Refresha® Drink</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Hot Coffee</t>
+  </si>
+  <si>
+    <t>Cappuccino</t>
+  </si>
+  <si>
+    <t>beanSelection</t>
+  </si>
+  <si>
+    <t>Blonde</t>
+  </si>
+  <si>
+    <t>9.85</t>
+  </si>
+  <si>
+    <t>12:37</t>
+  </si>
+  <si>
+    <t>1_TR</t>
+  </si>
+  <si>
+    <t>Bakery Treats</t>
+  </si>
+  <si>
+    <t>deliveryPriority</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Chocolate Caramel Shortbread</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>14:26</t>
   </si>
 </sst>
 </file>
@@ -536,31 +593,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="50.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="50.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,46 +641,52 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -638,41 +705,43 @@
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -692,42 +761,44 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -747,34 +818,34 @@
         <v>42</v>
       </c>
       <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -794,38 +865,40 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" t="s">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" t="s">
         <v>10</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -845,46 +918,205 @@
         <v>51</v>
       </c>
       <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="M6" t="s">
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="P7" t="s">
         <v>10</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q7" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S7" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1CB357DE-CA31-45DB-A98F-C619C7ACA9AC}"/>
-    <hyperlink ref="O2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{D54D8FC7-5183-48D0-AC6C-D943B8D530E5}"/>
-    <hyperlink ref="O3" r:id="rId4" xr:uid="{815FACF6-4DF8-4294-958B-5C61B60F05C2}"/>
+    <hyperlink ref="R3" r:id="rId4" xr:uid="{815FACF6-4DF8-4294-958B-5C61B60F05C2}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{C7B9F27C-ED6D-4513-BD44-C19A67FE735E}"/>
-    <hyperlink ref="O4" r:id="rId6" xr:uid="{D341E9E9-CA34-4CAB-9C82-940350E6F0C6}"/>
+    <hyperlink ref="R4" r:id="rId6" xr:uid="{D341E9E9-CA34-4CAB-9C82-940350E6F0C6}"/>
     <hyperlink ref="B5" r:id="rId7" xr:uid="{DE15CFCD-A6E5-438C-BF16-FC8FDC0249D2}"/>
-    <hyperlink ref="O5" r:id="rId8" xr:uid="{9CA59AE1-B2EA-4D49-8160-6FB7407AA337}"/>
+    <hyperlink ref="R5" r:id="rId8" xr:uid="{9CA59AE1-B2EA-4D49-8160-6FB7407AA337}"/>
     <hyperlink ref="B6" r:id="rId9" xr:uid="{8769B8FA-A547-4F54-9B66-8BF20A835882}"/>
-    <hyperlink ref="O6" r:id="rId10" xr:uid="{4ABB61D5-9C5D-4E71-8F1E-B996DFA54740}"/>
+    <hyperlink ref="R6" r:id="rId10" xr:uid="{4ABB61D5-9C5D-4E71-8F1E-B996DFA54740}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{2F2BE987-2CFB-4C57-ABCE-BF09AE6334D1}"/>
+    <hyperlink ref="R7" r:id="rId12" xr:uid="{B6266CE9-E3AE-48FD-9D44-985097072FB1}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{F14B7782-5909-43FE-AEEB-C29701731DF7}"/>
+    <hyperlink ref="R8" r:id="rId14" xr:uid="{B90DB2F2-6EB7-48E7-83F3-A883EAAE3027}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{4CDFA008-3C00-4089-8A7C-3AFC225E6EE2}"/>
+    <hyperlink ref="R10" r:id="rId16" xr:uid="{DB53DFAE-8A29-4A44-80D6-424DA66F4A58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/starBucksTestData.xlsx
+++ b/TestData/starBucksTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547EE5BB-73E9-4A61-BF87-0E0B80F91352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AA13A3-B6C9-4EF8-AD0F-B9534D0A6275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
   <si>
     <t>TC</t>
   </si>
@@ -253,10 +253,46 @@
     <t>2.65</t>
   </si>
   <si>
-    <t>14:15</t>
-  </si>
-  <si>
-    <t>14:26</t>
+    <t>06:38</t>
+  </si>
+  <si>
+    <t>2_TR</t>
+  </si>
+  <si>
+    <t>editDeliveryOption</t>
+  </si>
+  <si>
+    <t>Meet outside</t>
+  </si>
+  <si>
+    <t>Almond Croissant</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>12:13</t>
+  </si>
+  <si>
+    <t>3_TR</t>
+  </si>
+  <si>
+    <t>dropOffOption</t>
+  </si>
+  <si>
+    <t>Hand it to me</t>
+  </si>
+  <si>
+    <t>Leave at location</t>
+  </si>
+  <si>
+    <t>Leave at my door</t>
+  </si>
+  <si>
+    <t>10:09</t>
+  </si>
+  <si>
+    <t>10:14</t>
   </si>
 </sst>
 </file>
@@ -593,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,15 +649,17 @@
     <col min="13" max="13" customWidth="true" width="23.42578125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,25 +706,31 @@
         <v>73</v>
       </c>
       <c r="P1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -722,26 +766,28 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -779,26 +825,28 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -826,26 +874,26 @@
       <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -879,26 +927,28 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" t="s">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -926,26 +976,26 @@
       <c r="N6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -971,26 +1021,26 @@
         <v>41</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1018,26 +1068,26 @@
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1054,7 +1104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -1079,44 +1129,142 @@
       <c r="O10" t="s">
         <v>74</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="W10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1CB357DE-CA31-45DB-A98F-C619C7ACA9AC}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{D54D8FC7-5183-48D0-AC6C-D943B8D530E5}"/>
-    <hyperlink ref="R3" r:id="rId4" xr:uid="{815FACF6-4DF8-4294-958B-5C61B60F05C2}"/>
+    <hyperlink ref="T3" r:id="rId4" xr:uid="{815FACF6-4DF8-4294-958B-5C61B60F05C2}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{C7B9F27C-ED6D-4513-BD44-C19A67FE735E}"/>
-    <hyperlink ref="R4" r:id="rId6" xr:uid="{D341E9E9-CA34-4CAB-9C82-940350E6F0C6}"/>
+    <hyperlink ref="T4" r:id="rId6" xr:uid="{D341E9E9-CA34-4CAB-9C82-940350E6F0C6}"/>
     <hyperlink ref="B5" r:id="rId7" xr:uid="{DE15CFCD-A6E5-438C-BF16-FC8FDC0249D2}"/>
-    <hyperlink ref="R5" r:id="rId8" xr:uid="{9CA59AE1-B2EA-4D49-8160-6FB7407AA337}"/>
+    <hyperlink ref="T5" r:id="rId8" xr:uid="{9CA59AE1-B2EA-4D49-8160-6FB7407AA337}"/>
     <hyperlink ref="B6" r:id="rId9" xr:uid="{8769B8FA-A547-4F54-9B66-8BF20A835882}"/>
-    <hyperlink ref="R6" r:id="rId10" xr:uid="{4ABB61D5-9C5D-4E71-8F1E-B996DFA54740}"/>
+    <hyperlink ref="T6" r:id="rId10" xr:uid="{4ABB61D5-9C5D-4E71-8F1E-B996DFA54740}"/>
     <hyperlink ref="B7" r:id="rId11" xr:uid="{2F2BE987-2CFB-4C57-ABCE-BF09AE6334D1}"/>
-    <hyperlink ref="R7" r:id="rId12" xr:uid="{B6266CE9-E3AE-48FD-9D44-985097072FB1}"/>
+    <hyperlink ref="T7" r:id="rId12" xr:uid="{B6266CE9-E3AE-48FD-9D44-985097072FB1}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{F14B7782-5909-43FE-AEEB-C29701731DF7}"/>
-    <hyperlink ref="R8" r:id="rId14" xr:uid="{B90DB2F2-6EB7-48E7-83F3-A883EAAE3027}"/>
+    <hyperlink ref="T8" r:id="rId14" xr:uid="{B90DB2F2-6EB7-48E7-83F3-A883EAAE3027}"/>
     <hyperlink ref="B10" r:id="rId15" xr:uid="{4CDFA008-3C00-4089-8A7C-3AFC225E6EE2}"/>
-    <hyperlink ref="R10" r:id="rId16" xr:uid="{DB53DFAE-8A29-4A44-80D6-424DA66F4A58}"/>
+    <hyperlink ref="T10" r:id="rId16" xr:uid="{DB53DFAE-8A29-4A44-80D6-424DA66F4A58}"/>
+    <hyperlink ref="B11" r:id="rId17" xr:uid="{E35E3692-807C-40CB-9583-91BF6D4F9954}"/>
+    <hyperlink ref="T11" r:id="rId18" xr:uid="{5CFE9743-4A4D-4BAD-A68D-E37AAB146A1B}"/>
+    <hyperlink ref="B12" r:id="rId19" xr:uid="{B2F2C2FF-E162-4E36-A6AA-D0F133965BC6}"/>
+    <hyperlink ref="T12" r:id="rId20" xr:uid="{D08719B4-5FFD-452E-836F-56145120F88F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/starBucksTestData.xlsx
+++ b/TestData/starBucksTestData.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AA13A3-B6C9-4EF8-AD0F-B9534D0A6275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F95E4EE-B81E-4036-B0A9-6A28260C00AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="115">
   <si>
     <t>TC</t>
   </si>
@@ -253,9 +264,6 @@
     <t>2.65</t>
   </si>
   <si>
-    <t>06:38</t>
-  </si>
-  <si>
     <t>2_TR</t>
   </si>
   <si>
@@ -271,9 +279,6 @@
     <t>2.89</t>
   </si>
   <si>
-    <t>12:13</t>
-  </si>
-  <si>
     <t>3_TR</t>
   </si>
   <si>
@@ -289,10 +294,88 @@
     <t>Leave at my door</t>
   </si>
   <si>
-    <t>10:09</t>
-  </si>
-  <si>
     <t>10:14</t>
+  </si>
+  <si>
+    <t>4_TR</t>
+  </si>
+  <si>
+    <t>Caffe Latte</t>
+  </si>
+  <si>
+    <t>tipValue</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>11:48</t>
+  </si>
+  <si>
+    <t>13:53</t>
+  </si>
+  <si>
+    <t>5_TR</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>tipAmount</t>
+  </si>
+  <si>
+    <t>12:08</t>
+  </si>
+  <si>
+    <t>6_TR</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>scheduleTime</t>
+  </si>
+  <si>
+    <t>13:07</t>
+  </si>
+  <si>
+    <t>2:30 PM - 3:00 PM</t>
+  </si>
+  <si>
+    <t>13:12</t>
+  </si>
+  <si>
+    <t>7_TR</t>
+  </si>
+  <si>
+    <t>cancelReason</t>
+  </si>
+  <si>
+    <t>Accidentally ordered</t>
+  </si>
+  <si>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>12:15 PM - 12:45 PM</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>4:00 PM - 4:30 PM</t>
+  </si>
+  <si>
+    <t>14:42</t>
+  </si>
+  <si>
+    <t>4:15 PM - 4:45 PM</t>
+  </si>
+  <si>
+    <t>14:49</t>
   </si>
 </sst>
 </file>
@@ -629,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,18 +731,17 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="23.42578125" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="15" max="20" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="27.42578125" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,31 +788,43 @@
         <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="Q1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,26 +862,30 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -827,26 +925,30 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -874,26 +976,26 @@
       <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>10</v>
       </c>
-      <c r="S4" t="s">
+      <c r="W4" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -929,26 +1031,30 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" t="s">
         <v>10</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Y5" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -976,26 +1082,26 @@
       <c r="N6" t="s">
         <v>53</v>
       </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
         <v>10</v>
       </c>
-      <c r="S6" t="s">
+      <c r="W6" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y6" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1021,26 +1127,26 @@
         <v>41</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>10</v>
       </c>
-      <c r="S7" t="s">
+      <c r="W7" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U7" t="s">
+      <c r="Y7" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1068,26 +1174,26 @@
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>10</v>
       </c>
-      <c r="S8" t="s">
+      <c r="W8" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U8" t="s">
+      <c r="Y8" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1104,7 +1210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -1129,28 +1235,28 @@
       <c r="O10" t="s">
         <v>74</v>
       </c>
-      <c r="R10" t="s">
+      <c r="V10" t="s">
         <v>10</v>
       </c>
-      <c r="S10" t="s">
+      <c r="W10" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U10" t="s">
+      <c r="Y10" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -1168,36 +1274,36 @@
         <v>72</v>
       </c>
       <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" t="s">
-        <v>14</v>
-      </c>
-      <c r="V11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1217,54 +1323,259 @@
       <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="P12" t="s">
-        <v>87</v>
-      </c>
       <c r="Q12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R12" t="s">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" t="s">
         <v>10</v>
       </c>
-      <c r="S12" t="s">
+      <c r="W13" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U12" t="s">
+      <c r="Y13" t="s">
         <v>14</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="Z13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>89</v>
+      <c r="AA15" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="s">
+        <v>111</v>
+      </c>
+      <c r="U16" t="s">
+        <v>107</v>
+      </c>
+      <c r="V16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1CB357DE-CA31-45DB-A98F-C619C7ACA9AC}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{995C5F58-3F22-46AD-8233-E7D74166E324}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{D54D8FC7-5183-48D0-AC6C-D943B8D530E5}"/>
-    <hyperlink ref="T3" r:id="rId4" xr:uid="{815FACF6-4DF8-4294-958B-5C61B60F05C2}"/>
+    <hyperlink ref="X3" r:id="rId4" xr:uid="{815FACF6-4DF8-4294-958B-5C61B60F05C2}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{C7B9F27C-ED6D-4513-BD44-C19A67FE735E}"/>
-    <hyperlink ref="T4" r:id="rId6" xr:uid="{D341E9E9-CA34-4CAB-9C82-940350E6F0C6}"/>
+    <hyperlink ref="X4" r:id="rId6" xr:uid="{D341E9E9-CA34-4CAB-9C82-940350E6F0C6}"/>
     <hyperlink ref="B5" r:id="rId7" xr:uid="{DE15CFCD-A6E5-438C-BF16-FC8FDC0249D2}"/>
-    <hyperlink ref="T5" r:id="rId8" xr:uid="{9CA59AE1-B2EA-4D49-8160-6FB7407AA337}"/>
+    <hyperlink ref="X5" r:id="rId8" xr:uid="{9CA59AE1-B2EA-4D49-8160-6FB7407AA337}"/>
     <hyperlink ref="B6" r:id="rId9" xr:uid="{8769B8FA-A547-4F54-9B66-8BF20A835882}"/>
-    <hyperlink ref="T6" r:id="rId10" xr:uid="{4ABB61D5-9C5D-4E71-8F1E-B996DFA54740}"/>
+    <hyperlink ref="X6" r:id="rId10" xr:uid="{4ABB61D5-9C5D-4E71-8F1E-B996DFA54740}"/>
     <hyperlink ref="B7" r:id="rId11" xr:uid="{2F2BE987-2CFB-4C57-ABCE-BF09AE6334D1}"/>
-    <hyperlink ref="T7" r:id="rId12" xr:uid="{B6266CE9-E3AE-48FD-9D44-985097072FB1}"/>
+    <hyperlink ref="X7" r:id="rId12" xr:uid="{B6266CE9-E3AE-48FD-9D44-985097072FB1}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{F14B7782-5909-43FE-AEEB-C29701731DF7}"/>
-    <hyperlink ref="T8" r:id="rId14" xr:uid="{B90DB2F2-6EB7-48E7-83F3-A883EAAE3027}"/>
+    <hyperlink ref="X8" r:id="rId14" xr:uid="{B90DB2F2-6EB7-48E7-83F3-A883EAAE3027}"/>
     <hyperlink ref="B10" r:id="rId15" xr:uid="{4CDFA008-3C00-4089-8A7C-3AFC225E6EE2}"/>
-    <hyperlink ref="T10" r:id="rId16" xr:uid="{DB53DFAE-8A29-4A44-80D6-424DA66F4A58}"/>
+    <hyperlink ref="X10" r:id="rId16" xr:uid="{DB53DFAE-8A29-4A44-80D6-424DA66F4A58}"/>
     <hyperlink ref="B11" r:id="rId17" xr:uid="{E35E3692-807C-40CB-9583-91BF6D4F9954}"/>
-    <hyperlink ref="T11" r:id="rId18" xr:uid="{5CFE9743-4A4D-4BAD-A68D-E37AAB146A1B}"/>
+    <hyperlink ref="X11" r:id="rId18" xr:uid="{5CFE9743-4A4D-4BAD-A68D-E37AAB146A1B}"/>
     <hyperlink ref="B12" r:id="rId19" xr:uid="{B2F2C2FF-E162-4E36-A6AA-D0F133965BC6}"/>
-    <hyperlink ref="T12" r:id="rId20" xr:uid="{D08719B4-5FFD-452E-836F-56145120F88F}"/>
+    <hyperlink ref="X12" r:id="rId20" xr:uid="{D08719B4-5FFD-452E-836F-56145120F88F}"/>
+    <hyperlink ref="B13" r:id="rId21" xr:uid="{67F4F27B-7A72-496F-B141-4EB409CE46B8}"/>
+    <hyperlink ref="X13" r:id="rId22" xr:uid="{0303F626-0E4E-467B-BE4D-7BBC3AC8E27D}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{4A1B194B-8257-43D7-8F1C-B4752FF9338C}"/>
+    <hyperlink ref="X14" r:id="rId24" xr:uid="{0E0ED57D-D832-41C6-A74D-F979A55E1BDB}"/>
+    <hyperlink ref="B15" r:id="rId25" xr:uid="{9CB3F75D-5C9B-4219-A6E8-EE6870069B4F}"/>
+    <hyperlink ref="X15" r:id="rId26" xr:uid="{8E4A7129-3D65-4A09-A9E9-8CF7B8D083FB}"/>
+    <hyperlink ref="B16" r:id="rId27" xr:uid="{95001A51-10A2-466A-A7F6-FAD7357E98DA}"/>
+    <hyperlink ref="X16" r:id="rId28" xr:uid="{B5FF76DA-420E-4A1E-89B0-B5128A79BF31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
